--- a/psi_test.xlsx
+++ b/psi_test.xlsx
@@ -557,14 +557,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
